--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna2-Epha7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna2-Epha7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.764764333333333</v>
+        <v>3.293025333333333</v>
       </c>
       <c r="H2">
-        <v>8.294293</v>
+        <v>9.879076</v>
       </c>
       <c r="I2">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="J2">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.03360366666666666</v>
+        <v>0.2282403333333334</v>
       </c>
       <c r="N2">
-        <v>0.100811</v>
+        <v>0.684721</v>
       </c>
       <c r="O2">
-        <v>0.0235667354422325</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="P2">
-        <v>0.0235667354422325</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="Q2">
-        <v>0.09290621906922221</v>
+        <v>0.7516011997551111</v>
       </c>
       <c r="R2">
-        <v>0.8361559716229999</v>
+        <v>6.764410797796</v>
       </c>
       <c r="S2">
-        <v>0.006178361553468668</v>
+        <v>0.03554301551663105</v>
       </c>
       <c r="T2">
-        <v>0.006178361553468669</v>
+        <v>0.03554301551663105</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.764764333333333</v>
+        <v>3.293025333333333</v>
       </c>
       <c r="H3">
-        <v>8.294293</v>
+        <v>9.879076</v>
       </c>
       <c r="I3">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="J3">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.454069</v>
       </c>
       <c r="O3">
-        <v>0.8074627800757513</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="P3">
-        <v>0.8074627800757513</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="Q3">
-        <v>3.183228925357444</v>
+        <v>3.791445573360444</v>
       </c>
       <c r="R3">
-        <v>28.649060328217</v>
+        <v>34.123010160244</v>
       </c>
       <c r="S3">
-        <v>0.2116880807910642</v>
+        <v>0.1792964259348177</v>
       </c>
       <c r="T3">
-        <v>0.2116880807910642</v>
+        <v>0.1792964259348177</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.764764333333333</v>
+        <v>3.293025333333333</v>
       </c>
       <c r="H4">
-        <v>8.294293</v>
+        <v>9.879076</v>
       </c>
       <c r="I4">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="J4">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2314666666666667</v>
+        <v>0.127538</v>
       </c>
       <c r="N4">
-        <v>0.6944</v>
+        <v>0.3826140000000001</v>
       </c>
       <c r="O4">
-        <v>0.1623309072530404</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="P4">
-        <v>0.1623309072530403</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="Q4">
-        <v>0.6399507843555556</v>
+        <v>0.4199858649626667</v>
       </c>
       <c r="R4">
-        <v>5.7595570592</v>
+        <v>3.779872784664001</v>
       </c>
       <c r="S4">
-        <v>0.04255740209628556</v>
+        <v>0.019861016879693</v>
       </c>
       <c r="T4">
-        <v>0.04255740209628556</v>
+        <v>0.019861016879693</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.764764333333333</v>
+        <v>5.925454666666667</v>
       </c>
       <c r="H5">
-        <v>8.294293</v>
+        <v>17.776364</v>
       </c>
       <c r="I5">
-        <v>0.2621645059246011</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="J5">
-        <v>0.2621645059246011</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.009467333333333333</v>
+        <v>0.2282403333333334</v>
       </c>
       <c r="N5">
-        <v>0.028402</v>
+        <v>0.684721</v>
       </c>
       <c r="O5">
-        <v>0.006639577228975881</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="P5">
-        <v>0.00663957722897588</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="Q5">
-        <v>0.02617494553177778</v>
+        <v>1.352427748271556</v>
       </c>
       <c r="R5">
-        <v>0.235574509786</v>
+        <v>12.171849734444</v>
       </c>
       <c r="S5">
-        <v>0.001740661483782693</v>
+        <v>0.06395593894421722</v>
       </c>
       <c r="T5">
-        <v>0.001740661483782693</v>
+        <v>0.06395593894421721</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>17.776364</v>
       </c>
       <c r="I6">
-        <v>0.56187208303298</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="J6">
-        <v>0.5618720830329801</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.03360366666666666</v>
+        <v>1.151356333333333</v>
       </c>
       <c r="N6">
-        <v>0.100811</v>
+        <v>3.454069</v>
       </c>
       <c r="O6">
-        <v>0.0235667354422325</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="P6">
-        <v>0.0235667354422325</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="Q6">
-        <v>0.1991170034671111</v>
+        <v>6.822309758346223</v>
       </c>
       <c r="R6">
-        <v>1.792053031204</v>
+        <v>61.40078782511601</v>
       </c>
       <c r="S6">
-        <v>0.01324149073321433</v>
+        <v>0.3226251656851673</v>
       </c>
       <c r="T6">
-        <v>0.01324149073321433</v>
+        <v>0.3226251656851673</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>17.776364</v>
       </c>
       <c r="I7">
-        <v>0.56187208303298</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="J7">
-        <v>0.5618720830329801</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.151356333333333</v>
+        <v>0.127538</v>
       </c>
       <c r="N7">
-        <v>3.454069</v>
+        <v>0.3826140000000001</v>
       </c>
       <c r="O7">
-        <v>0.8074627800757513</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="P7">
-        <v>0.8074627800757513</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="Q7">
-        <v>6.822309758346222</v>
+        <v>0.7557206372773334</v>
       </c>
       <c r="R7">
-        <v>61.400787825116</v>
+        <v>6.801485735496001</v>
       </c>
       <c r="S7">
-        <v>0.4536907942127634</v>
+        <v>0.03573782259227149</v>
       </c>
       <c r="T7">
-        <v>0.4536907942127635</v>
+        <v>0.03573782259227149</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.925454666666667</v>
+        <v>2.186484333333333</v>
       </c>
       <c r="H8">
-        <v>17.776364</v>
+        <v>6.559453</v>
       </c>
       <c r="I8">
-        <v>0.56187208303298</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="J8">
-        <v>0.5618720830329801</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2314666666666667</v>
+        <v>0.2282403333333334</v>
       </c>
       <c r="N8">
-        <v>0.6944</v>
+        <v>0.684721</v>
       </c>
       <c r="O8">
-        <v>0.1623309072530404</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="P8">
-        <v>0.1623309072530403</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="Q8">
-        <v>1.371545240177778</v>
+        <v>0.4990439130681111</v>
       </c>
       <c r="R8">
-        <v>12.3439071616</v>
+        <v>4.491395217612999</v>
       </c>
       <c r="S8">
-        <v>0.09120920499889927</v>
+        <v>0.02359965038831689</v>
       </c>
       <c r="T8">
-        <v>0.09120920499889927</v>
+        <v>0.02359965038831689</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.925454666666667</v>
+        <v>2.186484333333333</v>
       </c>
       <c r="H9">
-        <v>17.776364</v>
+        <v>6.559453</v>
       </c>
       <c r="I9">
-        <v>0.56187208303298</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="J9">
-        <v>0.5618720830329801</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.009467333333333333</v>
+        <v>1.151356333333333</v>
       </c>
       <c r="N9">
-        <v>0.028402</v>
+        <v>3.454069</v>
       </c>
       <c r="O9">
-        <v>0.006639577228975881</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="P9">
-        <v>0.00663957722897588</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="Q9">
-        <v>0.05609825448088889</v>
+        <v>2.517422584917444</v>
       </c>
       <c r="R9">
-        <v>0.504884290328</v>
+        <v>22.656803264257</v>
       </c>
       <c r="S9">
-        <v>0.003730593088103019</v>
+        <v>0.1190482266749864</v>
       </c>
       <c r="T9">
-        <v>0.003730593088103019</v>
+        <v>0.1190482266749864</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3772583333333334</v>
+        <v>2.186484333333333</v>
       </c>
       <c r="H10">
-        <v>1.131775</v>
+        <v>6.559453</v>
       </c>
       <c r="I10">
-        <v>0.03577293853651124</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="J10">
-        <v>0.03577293853651124</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.03360366666666666</v>
+        <v>0.127538</v>
       </c>
       <c r="N10">
-        <v>0.100811</v>
+        <v>0.3826140000000001</v>
       </c>
       <c r="O10">
-        <v>0.0235667354422325</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="P10">
-        <v>0.0235667354422325</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="Q10">
-        <v>0.01267726328055556</v>
+        <v>0.2788598389046666</v>
       </c>
       <c r="R10">
-        <v>0.114095369525</v>
+        <v>2.509738550142</v>
       </c>
       <c r="S10">
-        <v>0.0008430513784812041</v>
+        <v>0.01318720564094789</v>
       </c>
       <c r="T10">
-        <v>0.0008430513784812044</v>
+        <v>0.01318720564094789</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3772583333333334</v>
+        <v>1.169741</v>
       </c>
       <c r="H11">
-        <v>1.131775</v>
+        <v>3.509223</v>
       </c>
       <c r="I11">
-        <v>0.03577293853651124</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="J11">
-        <v>0.03577293853651124</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>1.151356333333333</v>
+        <v>0.2282403333333334</v>
       </c>
       <c r="N11">
-        <v>3.454069</v>
+        <v>0.684721</v>
       </c>
       <c r="O11">
-        <v>0.8074627800757513</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="P11">
-        <v>0.8074627800757513</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="Q11">
-        <v>0.4343587713861112</v>
+        <v>0.2669820757536667</v>
       </c>
       <c r="R11">
-        <v>3.909228942475</v>
+        <v>2.402838681783</v>
       </c>
       <c r="S11">
-        <v>0.02888531640217034</v>
+        <v>0.01262550946468258</v>
       </c>
       <c r="T11">
-        <v>0.02888531640217035</v>
+        <v>0.01262550946468258</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,25 +1151,25 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3772583333333334</v>
+        <v>1.169741</v>
       </c>
       <c r="H12">
-        <v>1.131775</v>
+        <v>3.509223</v>
       </c>
       <c r="I12">
-        <v>0.03577293853651124</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="J12">
-        <v>0.03577293853651124</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,33 +1178,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2314666666666667</v>
+        <v>1.151356333333333</v>
       </c>
       <c r="N12">
-        <v>0.6944</v>
+        <v>3.454069</v>
       </c>
       <c r="O12">
-        <v>0.1623309072530404</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="P12">
-        <v>0.1623309072530403</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="Q12">
-        <v>0.08732272888888891</v>
+        <v>1.346788708709667</v>
       </c>
       <c r="R12">
-        <v>0.7859045600000002</v>
+        <v>12.121098378387</v>
       </c>
       <c r="S12">
-        <v>0.005807053567739119</v>
+        <v>0.06368927030303834</v>
       </c>
       <c r="T12">
-        <v>0.005807053567739119</v>
+        <v>0.06368927030303834</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3772583333333334</v>
+        <v>1.169741</v>
       </c>
       <c r="H13">
-        <v>1.131775</v>
+        <v>3.509223</v>
       </c>
       <c r="I13">
-        <v>0.03577293853651124</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="J13">
-        <v>0.03577293853651124</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.009467333333333333</v>
+        <v>0.127538</v>
       </c>
       <c r="N13">
-        <v>0.028402</v>
+        <v>0.3826140000000001</v>
       </c>
       <c r="O13">
-        <v>0.006639577228975881</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="P13">
-        <v>0.00663957722897588</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="Q13">
-        <v>0.003571630394444445</v>
+        <v>0.149186427658</v>
       </c>
       <c r="R13">
-        <v>0.03214467355</v>
+        <v>1.342677848922</v>
       </c>
       <c r="S13">
-        <v>0.0002375171881205738</v>
+        <v>0.007054985429569215</v>
       </c>
       <c r="T13">
-        <v>0.0002375171881205738</v>
+        <v>0.007054985429569215</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8907996666666668</v>
+        <v>1.456052666666666</v>
       </c>
       <c r="H14">
-        <v>2.672399</v>
+        <v>4.368157999999999</v>
       </c>
       <c r="I14">
-        <v>0.08446870196994463</v>
+        <v>0.1037757665456611</v>
       </c>
       <c r="J14">
-        <v>0.08446870196994465</v>
+        <v>0.1037757665456611</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,33 +1302,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.03360366666666666</v>
+        <v>0.2282403333333334</v>
       </c>
       <c r="N14">
-        <v>0.100811</v>
+        <v>0.684721</v>
       </c>
       <c r="O14">
-        <v>0.0235667354422325</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="P14">
-        <v>0.0235667354422325</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="Q14">
-        <v>0.02993413506544445</v>
+        <v>0.3323299459908889</v>
       </c>
       <c r="R14">
-        <v>0.269407215589</v>
+        <v>2.990969513917999</v>
       </c>
       <c r="S14">
-        <v>0.001990651552474468</v>
+        <v>0.01571579240539257</v>
       </c>
       <c r="T14">
-        <v>0.001990651552474469</v>
+        <v>0.01571579240539257</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8907996666666668</v>
+        <v>1.456052666666666</v>
       </c>
       <c r="H15">
-        <v>2.672399</v>
+        <v>4.368157999999999</v>
       </c>
       <c r="I15">
-        <v>0.08446870196994463</v>
+        <v>0.1037757665456611</v>
       </c>
       <c r="J15">
-        <v>0.08446870196994465</v>
+        <v>0.1037757665456611</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,27 +1370,27 @@
         <v>3.454069</v>
       </c>
       <c r="O15">
-        <v>0.8074627800757513</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="P15">
-        <v>0.8074627800757513</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="Q15">
-        <v>1.025627837947889</v>
+        <v>1.676435459433555</v>
       </c>
       <c r="R15">
-        <v>9.230650541531</v>
+        <v>15.087919134902</v>
       </c>
       <c r="S15">
-        <v>0.06820533292204159</v>
+        <v>0.07927817513688337</v>
       </c>
       <c r="T15">
-        <v>0.0682053329220416</v>
+        <v>0.07927817513688337</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8907996666666668</v>
+        <v>1.456052666666666</v>
       </c>
       <c r="H16">
-        <v>2.672399</v>
+        <v>4.368157999999999</v>
       </c>
       <c r="I16">
-        <v>0.08446870196994463</v>
+        <v>0.1037757665456611</v>
       </c>
       <c r="J16">
-        <v>0.08446870196994465</v>
+        <v>0.1037757665456611</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,338 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2314666666666667</v>
+        <v>0.127538</v>
       </c>
       <c r="N16">
-        <v>0.6944</v>
+        <v>0.3826140000000001</v>
       </c>
       <c r="O16">
-        <v>0.1623309072530404</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="P16">
-        <v>0.1623309072530403</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="Q16">
-        <v>0.2061904295111111</v>
+        <v>0.1857020450013333</v>
       </c>
       <c r="R16">
-        <v>1.8557138656</v>
+        <v>1.671318405012</v>
       </c>
       <c r="S16">
-        <v>0.01371188102526779</v>
+        <v>0.008781799003385138</v>
       </c>
       <c r="T16">
-        <v>0.01371188102526779</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.8907996666666668</v>
-      </c>
-      <c r="H17">
-        <v>2.672399</v>
-      </c>
-      <c r="I17">
-        <v>0.08446870196994463</v>
-      </c>
-      <c r="J17">
-        <v>0.08446870196994465</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.009467333333333333</v>
-      </c>
-      <c r="N17">
-        <v>0.028402</v>
-      </c>
-      <c r="O17">
-        <v>0.006639577228975881</v>
-      </c>
-      <c r="P17">
-        <v>0.00663957722897588</v>
-      </c>
-      <c r="Q17">
-        <v>0.008433497377555556</v>
-      </c>
-      <c r="R17">
-        <v>0.075901476398</v>
-      </c>
-      <c r="S17">
-        <v>0.0005608364701607945</v>
-      </c>
-      <c r="T17">
-        <v>0.0005608364701607945</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G18">
-        <v>0.5876370000000001</v>
-      </c>
-      <c r="H18">
-        <v>1.762911</v>
-      </c>
-      <c r="I18">
-        <v>0.05572177053596303</v>
-      </c>
-      <c r="J18">
-        <v>0.05572177053596303</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.03360366666666666</v>
-      </c>
-      <c r="N18">
-        <v>0.100811</v>
-      </c>
-      <c r="O18">
-        <v>0.0235667354422325</v>
-      </c>
-      <c r="P18">
-        <v>0.0235667354422325</v>
-      </c>
-      <c r="Q18">
-        <v>0.019746757869</v>
-      </c>
-      <c r="R18">
-        <v>0.177720820821</v>
-      </c>
-      <c r="S18">
-        <v>0.001313180224593827</v>
-      </c>
-      <c r="T18">
-        <v>0.001313180224593827</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G19">
-        <v>0.5876370000000001</v>
-      </c>
-      <c r="H19">
-        <v>1.762911</v>
-      </c>
-      <c r="I19">
-        <v>0.05572177053596303</v>
-      </c>
-      <c r="J19">
-        <v>0.05572177053596303</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1.151356333333333</v>
-      </c>
-      <c r="N19">
-        <v>3.454069</v>
-      </c>
-      <c r="O19">
-        <v>0.8074627800757513</v>
-      </c>
-      <c r="P19">
-        <v>0.8074627800757513</v>
-      </c>
-      <c r="Q19">
-        <v>0.676579581651</v>
-      </c>
-      <c r="R19">
-        <v>6.089216234858999</v>
-      </c>
-      <c r="S19">
-        <v>0.0449932557477118</v>
-      </c>
-      <c r="T19">
-        <v>0.0449932557477118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G20">
-        <v>0.5876370000000001</v>
-      </c>
-      <c r="H20">
-        <v>1.762911</v>
-      </c>
-      <c r="I20">
-        <v>0.05572177053596303</v>
-      </c>
-      <c r="J20">
-        <v>0.05572177053596303</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.2314666666666667</v>
-      </c>
-      <c r="N20">
-        <v>0.6944</v>
-      </c>
-      <c r="O20">
-        <v>0.1623309072530404</v>
-      </c>
-      <c r="P20">
-        <v>0.1623309072530403</v>
-      </c>
-      <c r="Q20">
-        <v>0.1360183776</v>
-      </c>
-      <c r="R20">
-        <v>1.2241653984</v>
-      </c>
-      <c r="S20">
-        <v>0.009045365564848612</v>
-      </c>
-      <c r="T20">
-        <v>0.00904536556484861</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G21">
-        <v>0.5876370000000001</v>
-      </c>
-      <c r="H21">
-        <v>1.762911</v>
-      </c>
-      <c r="I21">
-        <v>0.05572177053596303</v>
-      </c>
-      <c r="J21">
-        <v>0.05572177053596303</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.009467333333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.028402</v>
-      </c>
-      <c r="O21">
-        <v>0.006639577228975881</v>
-      </c>
-      <c r="P21">
-        <v>0.00663957722897588</v>
-      </c>
-      <c r="Q21">
-        <v>0.005563355358</v>
-      </c>
-      <c r="R21">
-        <v>0.050070198222</v>
-      </c>
-      <c r="S21">
-        <v>0.0003699689988087993</v>
-      </c>
-      <c r="T21">
-        <v>0.0003699689988087993</v>
+        <v>0.008781799003385138</v>
       </c>
     </row>
   </sheetData>
